--- a/Deliverables/Sprint 3 Burn-Up Chart.xlsx
+++ b/Deliverables/Sprint 3 Burn-Up Chart.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -65,7 +65,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -81,7 +81,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn-Up Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -140,20 +157,22 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="41437056"/>
-        <c:axId val="41438592"/>
+        <c:axId val="104025472"/>
+        <c:axId val="104064896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41437056"/>
+        <c:axId val="104025472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -178,15 +197,17 @@
         </c:title>
         <c:numFmt formatCode="m/d;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41438592"/>
+        <c:crossAx val="104064896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41438592"/>
+        <c:axId val="104064896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -210,7 +231,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41437056"/>
+        <c:crossAx val="104025472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -219,7 +240,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -255,6 +276,114 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3609975" y="1285875"/>
+          <a:ext cx="6191250" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="1066801"/>
+          <a:ext cx="419100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>31</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -548,7 +677,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,6 +700,9 @@
       <c r="B3" s="2">
         <v>42796</v>
       </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2">
